--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\2016_17\BSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\2016_17\BSD\Project\OrderM8\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>OrderM8</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Controller und Module der Unterseiten einbinden</t>
+  </si>
+  <si>
+    <t>Website - improved Menulayout</t>
+  </si>
+  <si>
+    <t>Website - Crud Funktionen</t>
+  </si>
+  <si>
+    <t>Website - Crud Funktionen Test + Bugfixes</t>
   </si>
 </sst>
 </file>
@@ -501,7 +510,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,10 +686,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,6 +812,62 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>42662</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>42675</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>42676</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>42679</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>30</v>
       </c>
     </row>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\2016_17\BSD\Project\OrderM8\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\GitHub\OrderM8\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>OrderM8</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>Website - Crud Funktionen Test + Bugfixes</t>
+  </si>
+  <si>
+    <t>Bugfixes</t>
+  </si>
+  <si>
+    <t>API Document</t>
+  </si>
+  <si>
+    <t>Backend Development (CRUD)</t>
+  </si>
+  <si>
+    <t>Backend Development (Improvments)</t>
+  </si>
+  <si>
+    <t>Backend Development (Exceptions)</t>
   </si>
 </sst>
 </file>
@@ -195,7 +210,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -211,7 +226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,20 +528,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -544,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -555,7 +570,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -572,7 +587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -596,21 +611,21 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -630,7 +645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -644,7 +659,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -658,7 +673,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -672,10 +687,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
     </row>
   </sheetData>
@@ -688,24 +703,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -725,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -739,7 +754,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -753,7 +768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -767,7 +782,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
@@ -781,7 +796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>42659</v>
       </c>
@@ -801,7 +816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>42660</v>
       </c>
@@ -815,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>42662</v>
       </c>
@@ -829,7 +844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>42675</v>
       </c>
@@ -843,7 +858,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>42676</v>
       </c>
@@ -857,7 +872,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>42679</v>
       </c>
@@ -884,20 +899,20 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -917,7 +932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -931,7 +946,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -945,7 +960,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -959,10 +974,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
     </row>
   </sheetData>
@@ -972,26 +987,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1011,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1025,7 +1040,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1039,7 +1054,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1053,11 +1068,75 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>42659</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>42660</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>42662</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>42673</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>42679</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\GitHub\OrderM8\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\GitHub\OrderM8\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>OrderM8</t>
   </si>
@@ -106,6 +106,27 @@
   </si>
   <si>
     <t>Backend Development (Exceptions)</t>
+  </si>
+  <si>
+    <t>MockUps</t>
+  </si>
+  <si>
+    <t>Xamarin Android - IDE Tests</t>
+  </si>
+  <si>
+    <t>Entwicklungsumgebung neu konfigurieren</t>
+  </si>
+  <si>
+    <t>Android SDK, Assembly Problems</t>
+  </si>
+  <si>
+    <t>Updaten von gewissen Assemblies</t>
+  </si>
+  <si>
+    <t>Xamarin Android - Erste Views + Singleton erstellt</t>
+  </si>
+  <si>
+    <t>Git Konfigurationsänderungen</t>
   </si>
 </sst>
 </file>
@@ -528,20 +549,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -559,7 +580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -570,7 +591,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -587,7 +608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -605,27 +626,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -645,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -659,7 +680,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -673,7 +694,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -687,11 +708,81 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>42662</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>42674</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>42679</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>42682</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>42683</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -707,20 +798,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -740,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -754,7 +845,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -768,7 +859,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -782,7 +873,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
@@ -796,7 +887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>42659</v>
       </c>
@@ -816,7 +907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>42660</v>
       </c>
@@ -830,7 +921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>42662</v>
       </c>
@@ -844,7 +935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>42675</v>
       </c>
@@ -858,7 +949,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>42676</v>
       </c>
@@ -872,7 +963,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>42679</v>
       </c>
@@ -899,20 +990,20 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -932,7 +1023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -946,7 +1037,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -960,7 +1051,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -974,10 +1065,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
     </row>
   </sheetData>
@@ -989,24 +1080,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1040,7 +1131,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1054,7 +1145,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1068,7 +1159,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
@@ -1082,7 +1173,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>42660</v>
       </c>
@@ -1096,7 +1187,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>42662</v>
       </c>
@@ -1110,7 +1201,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>42673</v>
       </c>
@@ -1124,7 +1215,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>42679</v>
       </c>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -629,7 +629,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\GitHub\OrderM8\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\2016_17\BSD\Project\OrderM8\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>OrderM8</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Git Konfigurationsänderungen</t>
+  </si>
+  <si>
+    <t>Git - Einführung + deployment auf azure</t>
+  </si>
+  <si>
+    <t>Github - Project initialization</t>
   </si>
 </sst>
 </file>
@@ -231,7 +237,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,7 +253,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -549,20 +555,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -580,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -591,7 +597,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -608,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -628,25 +634,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -666,7 +672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -680,7 +686,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -694,7 +700,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -708,7 +714,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42662</v>
       </c>
@@ -722,7 +728,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42674</v>
       </c>
@@ -736,7 +742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42679</v>
       </c>
@@ -756,7 +762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>42682</v>
       </c>
@@ -770,7 +776,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>42683</v>
       </c>
@@ -792,26 +798,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -831,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -845,7 +851,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -859,7 +865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -873,7 +879,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
@@ -887,7 +893,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42659</v>
       </c>
@@ -907,7 +913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42660</v>
       </c>
@@ -921,7 +927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>42662</v>
       </c>
@@ -935,7 +941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>42675</v>
       </c>
@@ -949,7 +955,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>42676</v>
       </c>
@@ -963,7 +969,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>42679</v>
       </c>
@@ -975,6 +981,17 @@
       </c>
       <c r="D12">
         <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>42683</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -990,20 +1007,20 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1037,7 +1054,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1051,7 +1068,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1065,10 +1082,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
     </row>
   </sheetData>
@@ -1078,26 +1095,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1131,7 +1148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1145,7 +1162,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1159,7 +1176,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
@@ -1173,7 +1190,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42660</v>
       </c>
@@ -1187,7 +1204,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42662</v>
       </c>
@@ -1201,7 +1218,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>42673</v>
       </c>
@@ -1215,7 +1232,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>42679</v>
       </c>
@@ -1227,6 +1244,17 @@
       </c>
       <c r="D10">
         <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>42683</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\2016_17\BSD\Project\OrderM8\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\GitHub\OrderM8\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -555,20 +555,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -597,7 +597,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -614,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -638,21 +638,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -672,7 +672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -686,7 +686,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -700,7 +700,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -714,7 +714,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>42662</v>
       </c>
@@ -728,7 +728,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>42674</v>
       </c>
@@ -742,7 +742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>42679</v>
       </c>
@@ -762,7 +762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>42682</v>
       </c>
@@ -776,7 +776,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>42683</v>
       </c>
@@ -804,20 +804,20 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -837,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -851,7 +851,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -865,7 +865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -879,7 +879,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
@@ -893,7 +893,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>42659</v>
       </c>
@@ -913,7 +913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>42660</v>
       </c>
@@ -927,7 +927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>42662</v>
       </c>
@@ -941,7 +941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>42675</v>
       </c>
@@ -955,7 +955,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>42676</v>
       </c>
@@ -969,7 +969,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>42679</v>
       </c>
@@ -983,7 +983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>42683</v>
       </c>
@@ -1007,20 +1007,20 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1082,10 +1082,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
     </row>
   </sheetData>
@@ -1098,23 +1098,23 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>42660</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>42662</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>42673</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>42679</v>
       </c>
@@ -1246,15 +1246,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>42683</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
       <c r="D11">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\GitHub\OrderM8\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\GitHub\OrderM8\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>OrderM8</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>Github - Project initialization</t>
+  </si>
+  <si>
+    <t>Xamarin App Development</t>
+  </si>
+  <si>
+    <t>Erstellen des Abgabedokumentes für Sprint 1</t>
+  </si>
+  <si>
+    <t>Smartphone macht keine Screenshots</t>
+  </si>
+  <si>
+    <t>iPhone Fotos vom Android device gemacht</t>
   </si>
 </sst>
 </file>
@@ -549,26 +561,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -586,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -597,7 +609,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -614,7 +626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -622,6 +634,17 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>42683</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -632,27 +655,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -672,7 +695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -686,7 +709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -700,7 +723,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -714,7 +737,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42662</v>
       </c>
@@ -728,7 +751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42674</v>
       </c>
@@ -742,7 +765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42679</v>
       </c>
@@ -762,7 +785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>42682</v>
       </c>
@@ -776,7 +799,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>42683</v>
       </c>
@@ -788,6 +811,40 @@
       </c>
       <c r="D10">
         <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>42683</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>42684</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -804,20 +861,20 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -837,7 +894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -851,7 +908,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -865,7 +922,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -879,7 +936,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
@@ -893,7 +950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42659</v>
       </c>
@@ -913,7 +970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42660</v>
       </c>
@@ -927,7 +984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>42662</v>
       </c>
@@ -941,7 +998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>42675</v>
       </c>
@@ -955,7 +1012,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>42676</v>
       </c>
@@ -969,7 +1026,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>42679</v>
       </c>
@@ -983,7 +1040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>42683</v>
       </c>
@@ -1007,20 +1064,20 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1054,7 +1111,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1068,7 +1125,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1082,10 +1139,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
     </row>
   </sheetData>
@@ -1097,24 +1154,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1134,7 +1191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1148,7 +1205,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1162,7 +1219,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1176,7 +1233,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
@@ -1190,7 +1247,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42660</v>
       </c>
@@ -1204,7 +1261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42662</v>
       </c>
@@ -1218,7 +1275,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>42673</v>
       </c>
@@ -1232,7 +1289,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>42679</v>
       </c>
@@ -1246,7 +1303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>42683</v>
       </c>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\GitHub\OrderM8\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\GitHub\delete\OrderM8\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>OrderM8</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>iPhone Fotos vom Android device gemacht</t>
+  </si>
+  <si>
+    <t>Final Backend test</t>
   </si>
 </sst>
 </file>
@@ -563,24 +566,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -598,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -609,7 +612,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -626,7 +629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -637,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>42683</v>
       </c>
@@ -661,21 +664,21 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -695,7 +698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -709,7 +712,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -723,7 +726,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -737,7 +740,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>42662</v>
       </c>
@@ -751,7 +754,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>42674</v>
       </c>
@@ -765,7 +768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>42679</v>
       </c>
@@ -785,7 +788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>42682</v>
       </c>
@@ -799,7 +802,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>42683</v>
       </c>
@@ -813,7 +816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>42683</v>
       </c>
@@ -827,7 +830,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>42684</v>
       </c>
@@ -861,20 +864,20 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -894,7 +897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -908,7 +911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -922,7 +925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -936,7 +939,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
@@ -950,7 +953,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>42659</v>
       </c>
@@ -970,7 +973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>42660</v>
       </c>
@@ -984,7 +987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>42662</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>42675</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>42676</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>42679</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>42683</v>
       </c>
@@ -1064,20 +1067,20 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1139,10 +1142,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
     </row>
   </sheetData>
@@ -1152,26 +1155,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>42660</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>42662</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>42673</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>42679</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>42683</v>
       </c>
@@ -1315,6 +1318,20 @@
       </c>
       <c r="D11">
         <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>42685</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\GitHub\delete\OrderM8\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\GitHub\OrderM8\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>OrderM8</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Datenmodell verbessern, Sprint Planning Meeting</t>
   </si>
   <si>
-    <t>SprintPlanningMeeting</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -148,6 +145,12 @@
   </si>
   <si>
     <t>Final Backend test</t>
+  </si>
+  <si>
+    <t>SprintPlanningMeeting 2 - Weihnachten</t>
+  </si>
+  <si>
+    <t>SprintPlanningMeeting 1 - November</t>
   </si>
 </sst>
 </file>
@@ -564,28 +567,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -601,7 +604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -612,7 +615,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -623,31 +626,42 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42683</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>42690</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -661,26 +675,26 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -689,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -698,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -712,7 +726,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -726,7 +740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -740,12 +754,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42662</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -754,12 +768,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42674</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -768,12 +782,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42679</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -782,18 +796,18 @@
         <v>120</v>
       </c>
       <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>42682</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -802,12 +816,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>42683</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -816,12 +830,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>42683</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -830,12 +844,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>42684</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -844,10 +858,10 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -864,22 +878,22 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -888,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -897,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -911,7 +925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -925,7 +939,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -939,12 +953,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>0.9</v>
@@ -953,12 +967,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42659</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -967,18 +981,18 @@
         <v>135</v>
       </c>
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42660</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -987,12 +1001,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>42662</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1001,12 +1015,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>42675</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>0.6</v>
@@ -1015,12 +1029,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>42676</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>0.9</v>
@@ -1029,12 +1043,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>42679</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1043,12 +1057,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>42683</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -1064,25 +1078,25 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1091,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1100,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1114,7 +1128,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1128,7 +1142,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1142,10 +1156,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
     </row>
   </sheetData>
@@ -1157,26 +1171,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1185,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>4</v>
@@ -1194,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1208,7 +1222,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1222,7 +1236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1236,12 +1250,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1250,12 +1264,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42660</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1264,12 +1278,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42662</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1278,12 +1292,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>42673</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1292,12 +1306,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>42679</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1306,12 +1320,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>42683</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1320,12 +1334,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>42685</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>OrderM8</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>SprintPlanningMeeting 1 - November</t>
+  </si>
+  <si>
+    <t>Vorbereitung 2.Sprint -&gt; Backendanforderungen, Zeitplan etc.</t>
   </si>
 </sst>
 </file>
@@ -567,16 +570,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
@@ -662,6 +665,17 @@
         <v>39</v>
       </c>
       <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>42697</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\GitHub\OrderM8\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>OrderM8</t>
   </si>
@@ -154,12 +154,24 @@
   </si>
   <si>
     <t>Vorbereitung 2.Sprint -&gt; Backendanforderungen, Zeitplan etc.</t>
+  </si>
+  <si>
+    <t>Besprechung Webservices</t>
+  </si>
+  <si>
+    <t>Anforderung der Benötigten Webservices an den Backend Lead Developer Weitergeleitet</t>
+  </si>
+  <si>
+    <t>Canvas</t>
+  </si>
+  <si>
+    <t>Anforderungen zur Kenntniss genommen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +286,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -349,23 +361,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -401,23 +396,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,6 +657,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>42704</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -686,16 +675,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
@@ -876,6 +865,17 @@
       </c>
       <c r="F12" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>42704</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -886,10 +886,326 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>42641</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>42648</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>42655</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>42659</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>42659</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>42660</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>42662</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>42675</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>42676</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>42679</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>42683</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>42704</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>42641</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>42648</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>42655</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>42704</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +1246,7 @@
         <v>42641</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>0.9</v>
@@ -944,7 +1260,7 @@
         <v>42648</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -972,303 +1288,6 @@
         <v>42659</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>42659</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>42660</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>42662</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>42675</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="D10">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>42676</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>42679</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>42683</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>42641</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>42648</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>42655</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>42641</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>42648</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>42655</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>42659</v>
-      </c>
-      <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2">
@@ -1360,6 +1379,17 @@
       </c>
       <c r="D12">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>42704</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\GitHub\OrderM8\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>OrderM8</t>
   </si>
@@ -166,12 +166,21 @@
   </si>
   <si>
     <t>Anforderungen zur Kenntniss genommen</t>
+  </si>
+  <si>
+    <t>Letzte Unstimmigkeiten beseitigt</t>
+  </si>
+  <si>
+    <t>App Webservices</t>
+  </si>
+  <si>
+    <t>Backend stuff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,7 +295,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -361,6 +370,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -396,6 +422,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,6 +711,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>42711</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -675,10 +729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,6 +932,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>42711</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -886,10 +951,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,6 +1158,17 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>42711</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1102,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1269,15 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7">
+        <v>42711</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1202,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,6 +1476,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>42711</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\GitHub\OrderM8\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>OrderM8</t>
   </si>
@@ -175,12 +175,24 @@
   </si>
   <si>
     <t>Backend stuff</t>
+  </si>
+  <si>
+    <t>Xamarin Forms installiert</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>App Webservices Testing</t>
+  </si>
+  <si>
+    <t>Pojektarbeit, siehe einzelerfassung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,7 +307,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -370,23 +382,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -422,23 +417,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -591,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,6 +700,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>42718</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -729,10 +718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,6 +932,20 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>42718</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -951,10 +954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,6 +1172,20 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>42718</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1176,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,6 +1296,20 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>42718</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1286,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,6 +1515,20 @@
         <v>48</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>42718</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\GitHub\OrderM8\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>OrderM8</t>
   </si>
@@ -187,12 +187,30 @@
   </si>
   <si>
     <t>Pojektarbeit, siehe einzelerfassung</t>
+  </si>
+  <si>
+    <t>Webservices &amp; SAP/ABAB</t>
+  </si>
+  <si>
+    <t>MVVM - Pattern in OrderMan-App</t>
+  </si>
+  <si>
+    <t>REST-Tester WPF</t>
+  </si>
+  <si>
+    <t>REST-Service Layer erweitert</t>
+  </si>
+  <si>
+    <t>Fertig mit Sprint 2 - Sprint Abgabe Dokument mit Screenshots gemacht</t>
+  </si>
+  <si>
+    <t>Abschlussarbeiten Sprint 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +325,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -382,6 +400,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -417,6 +452,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,6 +763,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>42725</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -718,10 +781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,6 +1009,34 @@
         <v>100</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>42723</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>42725</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -954,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,6 +1277,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>42725</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1193,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,6 +1389,9 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1295,6 +1403,9 @@
       <c r="C7" s="2">
         <v>0.3</v>
       </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -1307,6 +1418,34 @@
         <v>0.5</v>
       </c>
       <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>42723</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>42725</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D10">
         <v>100</v>
       </c>
     </row>
@@ -1317,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,6 +1645,9 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -1514,6 +1656,12 @@
       <c r="B14" t="s">
         <v>48</v>
       </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1526,6 +1674,20 @@
         <v>0.2</v>
       </c>
       <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>42725</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D16">
         <v>100</v>
       </c>
     </row>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\GitHub\OrderM8\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>OrderM8</t>
   </si>
@@ -205,12 +205,15 @@
   </si>
   <si>
     <t>Abschlussarbeiten Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3 Besprechung (TdoT Plakat)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,7 +328,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -400,23 +403,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -452,23 +438,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,18 +590,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -772,6 +741,17 @@
       </c>
       <c r="C12" s="2">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>42746</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -787,12 +767,12 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -1051,12 +1031,12 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -1304,12 +1284,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -1458,16 +1438,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>OrderM8</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Sprint 3 Besprechung (TdoT Plakat)</t>
+  </si>
+  <si>
+    <t>Plakat gemacht</t>
   </si>
 </sst>
 </file>
@@ -590,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E29" sqref="E28:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,6 +755,17 @@
       </c>
       <c r="C13" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>42753</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>OrderM8</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Plakat gemacht</t>
+  </si>
+  <si>
+    <t>Vorbereitung Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -593,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E28:E29"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,6 +769,17 @@
       </c>
       <c r="C14" s="2">
         <v>0.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>42760</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>OrderM8</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Vorbereitung Sprint 3</t>
+  </si>
+  <si>
+    <t>TdoT Vorberreitung</t>
   </si>
 </sst>
 </file>
@@ -596,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,6 +783,17 @@
       </c>
       <c r="C15" s="2">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>42767</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>OrderM8</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>TdoT Vorberreitung</t>
+  </si>
+  <si>
+    <t>SprintPlanningMeeting 3 - Ostern</t>
   </si>
 </sst>
 </file>
@@ -599,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,6 +796,17 @@
         <v>62</v>
       </c>
       <c r="C16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>42788</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>OrderM8</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>SprintPlanningMeeting 3 - Ostern</t>
+  </si>
+  <si>
+    <t>Sprint 3 Vorberreitung</t>
   </si>
 </sst>
 </file>
@@ -602,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,6 +810,17 @@
         <v>63</v>
       </c>
       <c r="C17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>42795</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
   <si>
     <t>OrderM8</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>Sprint 3 Vorberreitung</t>
+  </si>
+  <si>
+    <t>Sprint 3 Arbeit</t>
+  </si>
+  <si>
+    <t>Einlesen in .net Unit Testing</t>
+  </si>
+  <si>
+    <t>Start SAP Einbindung</t>
+  </si>
+  <si>
+    <t>Glänzt durch Abwesenheit</t>
   </si>
 </sst>
 </file>
@@ -605,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,6 +836,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>42802</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -831,10 +854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,6 +1110,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>42802</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1095,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,6 +1378,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>42802</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D18">
+        <v>666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1348,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,6 +1550,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>42802</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1506,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,6 +1806,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>42802</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>OrderM8</t>
   </si>
@@ -235,12 +235,21 @@
   </si>
   <si>
     <t>Glänzt durch Abwesenheit</t>
+  </si>
+  <si>
+    <t>Einführung in .net Unit Testing</t>
+  </si>
+  <si>
+    <t>CanvasCharts in das Dashboard einbauen</t>
+  </si>
+  <si>
+    <t>SAP Einbindung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,18 +626,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -844,6 +853,17 @@
         <v>65</v>
       </c>
       <c r="C19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>42809</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="2">
         <v>1</v>
       </c>
     </row>
@@ -854,18 +874,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -1121,6 +1141,20 @@
         <v>0.11</v>
       </c>
       <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>42809</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D19">
         <v>100</v>
       </c>
     </row>
@@ -1132,18 +1166,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -1390,6 +1424,20 @@
       </c>
       <c r="D18">
         <v>666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>42809</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1399,18 +1447,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -1561,6 +1609,20 @@
         <v>0.1</v>
       </c>
       <c r="D11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>42809</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D12">
         <v>100</v>
       </c>
     </row>
@@ -1571,18 +1633,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -1820,6 +1882,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>42809</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Protokoll.xlsx
+++ b/Documents/Protokoll.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>OrderM8</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>SAP Einbindung</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
   </si>
 </sst>
 </file>
@@ -626,26 +629,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -663,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -674,7 +677,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -691,7 +694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -702,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>42683</v>
       </c>
@@ -713,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>42690</v>
       </c>
@@ -724,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>42697</v>
       </c>
@@ -735,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>42704</v>
       </c>
@@ -746,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>42711</v>
       </c>
@@ -757,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>42718</v>
       </c>
@@ -768,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>42725</v>
       </c>
@@ -779,7 +782,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>42746</v>
       </c>
@@ -790,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>42753</v>
       </c>
@@ -801,7 +804,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>42760</v>
       </c>
@@ -812,7 +815,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>42767</v>
       </c>
@@ -823,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>42788</v>
       </c>
@@ -834,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>42795</v>
       </c>
@@ -845,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>42802</v>
       </c>
@@ -856,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>42809</v>
       </c>
@@ -864,6 +867,17 @@
         <v>65</v>
       </c>
       <c r="C20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>42816</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2">
         <v>1</v>
       </c>
     </row>
@@ -874,27 +888,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -914,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -928,7 +942,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -942,7 +956,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -956,7 +970,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>42662</v>
       </c>
@@ -970,7 +984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>42674</v>
       </c>
@@ -984,7 +998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>42679</v>
       </c>
@@ -1004,7 +1018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>42682</v>
       </c>
@@ -1018,7 +1032,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>42683</v>
       </c>
@@ -1032,7 +1046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>42683</v>
       </c>
@@ -1046,7 +1060,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>42684</v>
       </c>
@@ -1066,7 +1080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>42704</v>
       </c>
@@ -1077,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>42711</v>
       </c>
@@ -1088,7 +1102,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>42718</v>
       </c>
@@ -1102,7 +1116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>42723</v>
       </c>
@@ -1116,7 +1130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>42725</v>
       </c>
@@ -1130,7 +1144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>42802</v>
       </c>
@@ -1144,7 +1158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>42809</v>
       </c>
@@ -1155,6 +1169,20 @@
         <v>0.6</v>
       </c>
       <c r="D19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>42816</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
         <v>100</v>
       </c>
     </row>
@@ -1166,26 +1194,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1205,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1219,7 +1247,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1233,7 +1261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1247,7 +1275,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
@@ -1261,7 +1289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>42659</v>
       </c>
@@ -1281,7 +1309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>42660</v>
       </c>
@@ -1295,7 +1323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>42662</v>
       </c>
@@ -1309,7 +1337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>42675</v>
       </c>
@@ -1323,7 +1351,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>42676</v>
       </c>
@@ -1337,7 +1365,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>42679</v>
       </c>
@@ -1351,7 +1379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>42683</v>
       </c>
@@ -1362,7 +1390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>42704</v>
       </c>
@@ -1373,7 +1401,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>42711</v>
       </c>
@@ -1384,7 +1412,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>42718</v>
       </c>
@@ -1398,7 +1426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>42725</v>
       </c>
@@ -1412,7 +1440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>42802</v>
       </c>
@@ -1426,7 +1454,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>42809</v>
       </c>
@@ -1437,6 +1465,20 @@
         <v>0.3</v>
       </c>
       <c r="D19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>42816</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D20">
         <v>100</v>
       </c>
     </row>
@@ -1447,26 +1489,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1486,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1500,7 +1542,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1514,7 +1556,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1528,7 +1570,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>42704</v>
       </c>
@@ -1542,7 +1584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>42711</v>
       </c>
@@ -1556,7 +1598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>42718</v>
       </c>
@@ -1570,7 +1612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>42723</v>
       </c>
@@ -1584,7 +1626,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>42725</v>
       </c>
@@ -1598,7 +1640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>42802</v>
       </c>
@@ -1612,7 +1654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>42809</v>
       </c>
@@ -1623,6 +1665,20 @@
         <v>0.6</v>
       </c>
       <c r="D12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>42816</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
         <v>100</v>
       </c>
     </row>
@@ -1633,26 +1689,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42641</v>
       </c>
@@ -1686,7 +1742,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>42648</v>
       </c>
@@ -1700,7 +1756,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>42655</v>
       </c>
@@ -1714,7 +1770,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>42659</v>
       </c>
@@ -1728,7 +1784,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>42660</v>
       </c>
@@ -1742,7 +1798,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>42662</v>
       </c>
@@ -1756,7 +1812,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>42673</v>
       </c>
@@ -1770,7 +1826,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>42679</v>
       </c>
@@ -1784,7 +1840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>42683</v>
       </c>
@@ -1798,7 +1854,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>42685</v>
       </c>
@@ -1812,7 +1868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>42704</v>
       </c>
@@ -1826,7 +1882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>42711</v>
       </c>
@@ -1840,7 +1896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>42718</v>
       </c>
@@ -1854,7 +1910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>42725</v>
       </c>
@@ -1868,7 +1924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>42802</v>
       </c>
@@ -1882,7 +1938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>42809</v>
       </c>
@@ -1893,6 +1949,20 @@
         <v>0.4</v>
       </c>
       <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>42816</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D19">
         <v>100</v>
       </c>
     </row>
